--- a/resources/url配置模板.xlsx
+++ b/resources/url配置模板.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\python_workplace\webchecker_server\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C082782-1779-4EC8-8D36-0DC7D91D3EB6}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63FBB769-1E4F-4BB8-B4A8-0B3F54E7AA5D}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20370" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -47,7 +47,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>超时时间</t>
+    <t>超时时间（ms）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -443,7 +443,7 @@
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -451,6 +451,7 @@
     <col min="1" max="1" width="9" style="6"/>
     <col min="2" max="2" width="9" style="4"/>
     <col min="3" max="3" width="20.75" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
@@ -503,8 +504,8 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D1048576" xr:uid="{BE3C0C30-491D-4BE5-8699-832871E4F156}">
       <formula1>"QUICK,NORMAL"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E1048576" xr:uid="{EF42EECE-40BF-4BDC-B80B-9304A173EE21}">
-      <formula1>"Get,Post"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E1:E1048576" xr:uid="{AFFF7BE6-CE4E-4306-AE08-0C83C5D3F291}">
+      <formula1>"GET,POST"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
